--- a/QuantLibXL/Data2/XLS/SEK/SEK_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/SEK/SEK_YCSTDBootstrapping.xlsx
@@ -2063,7 +2063,7 @@
     <row r="1" spans="1:31" s="3" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.6.0 - MS VC++ (version unknown) - Multithreaded Dynamic Runtime library - Release Configuration - May  8 2015 11:10:23</v>
+        <v>QuantLibXL 1.6.0 - MS VC++ (version unknown) - Multithreaded Dynamic Runtime library - Release Configuration - Jun 25 2015 08:49:52</v>
       </c>
     </row>
     <row r="2" spans="1:31" s="3" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2392,7 +2392,9 @@
       <c r="C11" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="24"/>
+      <c r="D11" s="24">
+        <v>42181.618344907409</v>
+      </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="27"/>
@@ -2511,7 +2513,7 @@
       </c>
       <c r="D14" s="21" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,_xll.ohPack(Selected!D2:D126),,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_SEKYCSTD#0027</v>
+        <v>_SEKYCSTD#0000</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -2849,11 +2851,11 @@
       <c r="B23" s="5"/>
       <c r="C23" s="9">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>42139</v>
+        <v>42181</v>
       </c>
       <c r="D23" s="8">
         <f>MAX(_xll.ohPack(Selected!J1:J126))</f>
-        <v>1.9627025119016088E-2</v>
+        <v>2.3730335668443826E-2</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -2888,11 +2890,11 @@
       <c r="B24" s="5"/>
       <c r="C24" s="7">
         <f>MAX(_xll.ohPack(Selected!I2:I126))</f>
-        <v>53101</v>
+        <v>53142</v>
       </c>
       <c r="D24" s="6">
         <f>MIN(_xll.ohPack(Selected!J1:J126))</f>
-        <v>-2.5274596979053994E-3</v>
+        <v>-2.6548135364323445E-3</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -4311,7 +4313,7 @@
     <row r="2" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="186" t="str">
         <f>Deposits!J3</f>
-        <v>obj_00159#0001</v>
+        <v>obj_0015f#0000</v>
       </c>
       <c r="B2" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A2),"LastFixing","D"),"Libor","")</f>
@@ -4333,11 +4335,11 @@
       </c>
       <c r="H2" s="98">
         <f>_xll.qlRateHelperEarliestDate($A2,Trigger)</f>
-        <v>42137</v>
+        <v>42180</v>
       </c>
       <c r="I2" s="99">
         <f>_xll.qlRateHelperLatestDate($A2,Trigger)</f>
-        <v>42139</v>
+        <v>42181</v>
       </c>
       <c r="J2" s="52">
         <v>10</v>
@@ -4349,7 +4351,7 @@
     <row r="3" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="186" t="str">
         <f>Deposits!J4</f>
-        <v>obj_0016c#0001</v>
+        <v>obj_0016c#0000</v>
       </c>
       <c r="B3" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A3),"LastFixing","D"),"Libor","")</f>
@@ -4357,7 +4359,7 @@
       </c>
       <c r="C3" s="97">
         <f>_xll.qlRateHelperQuoteValue($A3,Trigger)</f>
-        <v>-1.82E-3</v>
+        <v>-2.5000000000000001E-3</v>
       </c>
       <c r="D3" s="97"/>
       <c r="E3" s="54" t="b">
@@ -4371,17 +4373,17 @@
       </c>
       <c r="H3" s="98">
         <f>_xll.qlRateHelperEarliestDate($A3,Trigger)</f>
-        <v>42139</v>
+        <v>42181</v>
       </c>
       <c r="I3" s="99">
         <f>_xll.qlRateHelperLatestDate($A3,Trigger)</f>
-        <v>42142</v>
+        <v>42184</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="186" t="str">
         <f>Deposits!J5</f>
-        <v>obj_0016a#0001</v>
+        <v>obj_0016a#0000</v>
       </c>
       <c r="B4" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A4),"LastFixing","D"),"Libor","")</f>
@@ -4403,17 +4405,17 @@
       </c>
       <c r="H4" s="98">
         <f>_xll.qlRateHelperEarliestDate($A4,Trigger)</f>
-        <v>42142</v>
+        <v>42184</v>
       </c>
       <c r="I4" s="99">
         <f>_xll.qlRateHelperLatestDate($A4,Trigger)</f>
-        <v>42144</v>
+        <v>42186</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="186" t="str">
         <f>Deposits!J6</f>
-        <v>obj_0017d#0001</v>
+        <v>obj_0017f#0000</v>
       </c>
       <c r="B5" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A5),"LastFixing","D"),"Libor","")</f>
@@ -4421,7 +4423,7 @@
       </c>
       <c r="C5" s="97">
         <f>_xll.qlRateHelperQuoteValue($A5,Trigger)</f>
-        <v>-2.66E-3</v>
+        <v>-2.4100000000000002E-3</v>
       </c>
       <c r="D5" s="97"/>
       <c r="E5" s="54" t="b">
@@ -4435,11 +4437,11 @@
       </c>
       <c r="H5" s="98">
         <f>_xll.qlRateHelperEarliestDate($A5,Trigger)</f>
-        <v>42142</v>
+        <v>42184</v>
       </c>
       <c r="I5" s="99">
         <f>_xll.qlRateHelperLatestDate($A5,Trigger)</f>
-        <v>42150</v>
+        <v>42191</v>
       </c>
       <c r="J5" s="52">
         <v>60</v>
@@ -4451,7 +4453,7 @@
     <row r="6" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="186" t="str">
         <f>Deposits!J7</f>
-        <v>obj_00184#0001</v>
+        <v>obj_0017e#0000</v>
       </c>
       <c r="B6" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A6),"LastFixing","D"),"Libor","")</f>
@@ -4473,17 +4475,17 @@
       </c>
       <c r="H6" s="98">
         <f>_xll.qlRateHelperEarliestDate($A6,Trigger)</f>
-        <v>42142</v>
+        <v>42184</v>
       </c>
       <c r="I6" s="99">
         <f>_xll.qlRateHelperLatestDate($A6,Trigger)</f>
-        <v>42156</v>
+        <v>42198</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="186" t="str">
         <f>Deposits!J8</f>
-        <v>obj_00189#0001</v>
+        <v>obj_00188#0000</v>
       </c>
       <c r="B7" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A7),"LastFixing","D"),"Libor","")</f>
@@ -4505,17 +4507,17 @@
       </c>
       <c r="H7" s="98">
         <f>_xll.qlRateHelperEarliestDate($A7,Trigger)</f>
-        <v>42142</v>
+        <v>42184</v>
       </c>
       <c r="I7" s="99">
         <f>_xll.qlRateHelperLatestDate($A7,Trigger)</f>
-        <v>42163</v>
+        <v>42205</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="186" t="str">
         <f>Deposits!J9</f>
-        <v>obj_00182#0001</v>
+        <v>obj_00189#0000</v>
       </c>
       <c r="B8" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A8),"LastFixing","D"),"Libor","")</f>
@@ -4523,7 +4525,7 @@
       </c>
       <c r="C8" s="97">
         <f>_xll.qlRateHelperQuoteValue($A8,Trigger)</f>
-        <v>-2.64E-3</v>
+        <v>-2.63E-3</v>
       </c>
       <c r="D8" s="97"/>
       <c r="E8" s="54" t="b">
@@ -4537,17 +4539,17 @@
       </c>
       <c r="H8" s="98">
         <f>_xll.qlRateHelperEarliestDate($A8,Trigger)</f>
-        <v>42142</v>
+        <v>42184</v>
       </c>
       <c r="I8" s="99">
         <f>_xll.qlRateHelperLatestDate($A8,Trigger)</f>
-        <v>42173</v>
+        <v>42214</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="186" t="str">
         <f>Deposits!J10</f>
-        <v>obj_0017e#0001</v>
+        <v>obj_00181#0000</v>
       </c>
       <c r="B9" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A9),"LastFixing","D"),"Libor","")</f>
@@ -4569,17 +4571,17 @@
       </c>
       <c r="H9" s="98">
         <f>_xll.qlRateHelperEarliestDate($A9,Trigger)</f>
-        <v>42142</v>
+        <v>42184</v>
       </c>
       <c r="I9" s="99">
         <f>_xll.qlRateHelperLatestDate($A9,Trigger)</f>
-        <v>42205</v>
+        <v>42247</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="186" t="str">
         <f>Deposits!J11</f>
-        <v>obj_00183#0001</v>
+        <v>obj_0017c#0000</v>
       </c>
       <c r="B10" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A10),"LastFixing","D"),"Libor","")</f>
@@ -4587,7 +4589,7 @@
       </c>
       <c r="C10" s="97">
         <f>_xll.qlRateHelperQuoteValue($A10,Trigger)</f>
-        <v>-2.0800000000000003E-3</v>
+        <v>-2.0600000000000002E-3</v>
       </c>
       <c r="D10" s="97"/>
       <c r="E10" s="54" t="b">
@@ -4601,17 +4603,17 @@
       </c>
       <c r="H10" s="98">
         <f>_xll.qlRateHelperEarliestDate($A10,Trigger)</f>
-        <v>42142</v>
+        <v>42184</v>
       </c>
       <c r="I10" s="99">
         <f>_xll.qlRateHelperLatestDate($A10,Trigger)</f>
-        <v>42234</v>
+        <v>42276</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="186" t="str">
         <f>Deposits!J12</f>
-        <v>obj_0018a#0001</v>
+        <v>obj_0018a#0000</v>
       </c>
       <c r="B11" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A11),"LastFixing","D"),"Libor","")</f>
@@ -4633,17 +4635,17 @@
       </c>
       <c r="H11" s="98">
         <f>_xll.qlRateHelperEarliestDate($A11,Trigger)</f>
-        <v>42142</v>
+        <v>42184</v>
       </c>
       <c r="I11" s="99">
         <f>_xll.qlRateHelperLatestDate($A11,Trigger)</f>
-        <v>42265</v>
+        <v>42306</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="186" t="str">
         <f>Deposits!J13</f>
-        <v>obj_00188#0001</v>
+        <v>obj_00186#0000</v>
       </c>
       <c r="B12" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A12),"LastFixing","D"),"Libor","")</f>
@@ -4665,17 +4667,17 @@
       </c>
       <c r="H12" s="98">
         <f>_xll.qlRateHelperEarliestDate($A12,Trigger)</f>
-        <v>42142</v>
+        <v>42184</v>
       </c>
       <c r="I12" s="99">
         <f>_xll.qlRateHelperLatestDate($A12,Trigger)</f>
-        <v>42296</v>
+        <v>42338</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="186" t="str">
         <f>Deposits!J14</f>
-        <v>obj_00180#0001</v>
+        <v>obj_00185#0000</v>
       </c>
       <c r="B13" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A13),"LastFixing","D"),"Libor","")</f>
@@ -4683,7 +4685,7 @@
       </c>
       <c r="C13" s="97">
         <f>_xll.qlRateHelperQuoteValue($A13,Trigger)</f>
-        <v>-1.5499999999999999E-3</v>
+        <v>-1.3900000000000002E-3</v>
       </c>
       <c r="D13" s="97"/>
       <c r="E13" s="54" t="b">
@@ -4697,17 +4699,17 @@
       </c>
       <c r="H13" s="98">
         <f>_xll.qlRateHelperEarliestDate($A13,Trigger)</f>
-        <v>42142</v>
+        <v>42184</v>
       </c>
       <c r="I13" s="99">
         <f>_xll.qlRateHelperLatestDate($A13,Trigger)</f>
-        <v>42326</v>
+        <v>42367</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="186" t="str">
         <f>Deposits!J15</f>
-        <v>obj_0017f#0001</v>
+        <v>obj_00183#0000</v>
       </c>
       <c r="B14" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A14),"LastFixing","D"),"Libor","")</f>
@@ -4729,17 +4731,17 @@
       </c>
       <c r="H14" s="98">
         <f>_xll.qlRateHelperEarliestDate($A14,Trigger)</f>
-        <v>42142</v>
+        <v>42184</v>
       </c>
       <c r="I14" s="99">
         <f>_xll.qlRateHelperLatestDate($A14,Trigger)</f>
-        <v>42356</v>
+        <v>42398</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="186" t="str">
         <f>Deposits!J16</f>
-        <v>obj_00185#0001</v>
+        <v>obj_00180#0000</v>
       </c>
       <c r="B15" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A15),"LastFixing","D"),"Libor","")</f>
@@ -4761,17 +4763,17 @@
       </c>
       <c r="H15" s="98">
         <f>_xll.qlRateHelperEarliestDate($A15,Trigger)</f>
-        <v>42142</v>
+        <v>42184</v>
       </c>
       <c r="I15" s="99">
         <f>_xll.qlRateHelperLatestDate($A15,Trigger)</f>
-        <v>42387</v>
+        <v>42429</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="186" t="str">
         <f>Deposits!J17</f>
-        <v>obj_00187#0001</v>
+        <v>obj_00184#0000</v>
       </c>
       <c r="B16" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A16),"LastFixing","D"),"Libor","")</f>
@@ -4793,17 +4795,17 @@
       </c>
       <c r="H16" s="98">
         <f>_xll.qlRateHelperEarliestDate($A16,Trigger)</f>
-        <v>42142</v>
+        <v>42184</v>
       </c>
       <c r="I16" s="99">
         <f>_xll.qlRateHelperLatestDate($A16,Trigger)</f>
-        <v>42418</v>
+        <v>42458</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="186" t="str">
         <f>Deposits!J18</f>
-        <v>obj_0017c#0001</v>
+        <v>obj_0017d#0000</v>
       </c>
       <c r="B17" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A17),"LastFixing","D"),"Libor","")</f>
@@ -4825,17 +4827,17 @@
       </c>
       <c r="H17" s="98">
         <f>_xll.qlRateHelperEarliestDate($A17,Trigger)</f>
-        <v>42142</v>
+        <v>42184</v>
       </c>
       <c r="I17" s="99">
         <f>_xll.qlRateHelperLatestDate($A17,Trigger)</f>
-        <v>42447</v>
+        <v>42489</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="186" t="str">
         <f>Deposits!J19</f>
-        <v>obj_00186#0001</v>
+        <v>obj_00182#0000</v>
       </c>
       <c r="B18" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A18),"LastFixing","D"),"Libor","")</f>
@@ -4857,17 +4859,17 @@
       </c>
       <c r="H18" s="98">
         <f>_xll.qlRateHelperEarliestDate($A18,Trigger)</f>
-        <v>42142</v>
+        <v>42184</v>
       </c>
       <c r="I18" s="99">
         <f>_xll.qlRateHelperLatestDate($A18,Trigger)</f>
-        <v>42478</v>
+        <v>42520</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="186" t="str">
         <f>Deposits!J20</f>
-        <v>obj_00181#0001</v>
+        <v>obj_00187#0000</v>
       </c>
       <c r="B19" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A19),"LastFixing","D"),"Libor","")</f>
@@ -4889,17 +4891,17 @@
       </c>
       <c r="H19" s="98">
         <f>_xll.qlRateHelperEarliestDate($A19,Trigger)</f>
-        <v>42142</v>
+        <v>42184</v>
       </c>
       <c r="I19" s="99">
         <f>_xll.qlRateHelperLatestDate($A19,Trigger)</f>
-        <v>42508</v>
+        <v>42550</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="185" t="str">
         <f>'IMM FRA'!J3</f>
-        <v>obj_00160#0008</v>
+        <v>obj_0015d#0000</v>
       </c>
       <c r="B20" s="106" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A20),"LastFixing","D"),"Libor","")</f>
@@ -4907,7 +4909,7 @@
       </c>
       <c r="C20" s="132">
         <f>_xll.qlRateHelperQuoteValue(A20,Trigger)</f>
-        <v>100.24</v>
+        <v>100.23</v>
       </c>
       <c r="D20" s="107">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(A20,Trigger)</f>
@@ -4924,17 +4926,17 @@
       </c>
       <c r="H20" s="109">
         <f>_xll.qlRateHelperEarliestDate($A20,Trigger)</f>
-        <v>42172</v>
+        <v>42263</v>
       </c>
       <c r="I20" s="110">
         <f>_xll.qlRateHelperLatestDate($A20,Trigger)</f>
-        <v>42264</v>
+        <v>42354</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="186" t="str">
         <f>'IMM FRA'!J4</f>
-        <v>obj_0015d#0002</v>
+        <v>obj_00166#0000</v>
       </c>
       <c r="B21" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A21),"LastFixing","D"),"Libor","")</f>
@@ -4942,7 +4944,7 @@
       </c>
       <c r="C21" s="105">
         <f>_xll.qlRateHelperQuoteValue(A21,Trigger)</f>
-        <v>100.26</v>
+        <v>100.205</v>
       </c>
       <c r="D21" s="97">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(A21,Trigger)</f>
@@ -4959,17 +4961,17 @@
       </c>
       <c r="H21" s="98">
         <f>_xll.qlRateHelperEarliestDate($A21,Trigger)</f>
-        <v>42263</v>
+        <v>42354</v>
       </c>
       <c r="I21" s="99">
         <f>_xll.qlRateHelperLatestDate($A21,Trigger)</f>
-        <v>42354</v>
+        <v>42445</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="186" t="str">
         <f>'IMM FRA'!J5</f>
-        <v>obj_0015a#0002</v>
+        <v>obj_0015e#0000</v>
       </c>
       <c r="B22" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A22),"LastFixing","D"),"Libor","")</f>
@@ -4977,7 +4979,7 @@
       </c>
       <c r="C22" s="105">
         <f>_xll.qlRateHelperQuoteValue(A22,Trigger)</f>
-        <v>100.25</v>
+        <v>100.145</v>
       </c>
       <c r="D22" s="97">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(A22,Trigger)</f>
@@ -4994,17 +4996,17 @@
       </c>
       <c r="H22" s="98">
         <f>_xll.qlRateHelperEarliestDate($A22,Trigger)</f>
-        <v>42354</v>
+        <v>42445</v>
       </c>
       <c r="I22" s="99">
         <f>_xll.qlRateHelperLatestDate($A22,Trigger)</f>
-        <v>42445</v>
+        <v>42537</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="186" t="str">
         <f>'IMM FRA'!J6</f>
-        <v>obj_0015c#0002</v>
+        <v>obj_00167#0000</v>
       </c>
       <c r="B23" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A23),"LastFixing","D"),"Libor","")</f>
@@ -5012,7 +5014,7 @@
       </c>
       <c r="C23" s="105">
         <f>_xll.qlRateHelperQuoteValue(A23,Trigger)</f>
-        <v>100.21</v>
+        <v>100.0675</v>
       </c>
       <c r="D23" s="97">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(A23,Trigger)</f>
@@ -5029,17 +5031,17 @@
       </c>
       <c r="H23" s="98">
         <f>_xll.qlRateHelperEarliestDate($A23,Trigger)</f>
-        <v>42445</v>
+        <v>42536</v>
       </c>
       <c r="I23" s="99">
         <f>_xll.qlRateHelperLatestDate($A23,Trigger)</f>
-        <v>42537</v>
+        <v>42628</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="186" t="str">
         <f>'IMM FRA'!J7</f>
-        <v>obj_0015f#0002</v>
+        <v>obj_00160#0000</v>
       </c>
       <c r="B24" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A24),"LastFixing","D"),"Libor","")</f>
@@ -5047,7 +5049,7 @@
       </c>
       <c r="C24" s="105">
         <f>_xll.qlRateHelperQuoteValue(A24,Trigger)</f>
-        <v>100.13500000000001</v>
+        <v>99.965000000000003</v>
       </c>
       <c r="D24" s="97">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(A24,Trigger)</f>
@@ -5064,17 +5066,17 @@
       </c>
       <c r="H24" s="98">
         <f>_xll.qlRateHelperEarliestDate($A24,Trigger)</f>
-        <v>42536</v>
+        <v>42634</v>
       </c>
       <c r="I24" s="99">
         <f>_xll.qlRateHelperLatestDate($A24,Trigger)</f>
-        <v>42628</v>
+        <v>42725</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="186" t="str">
         <f>'IMM FRA'!J8</f>
-        <v>obj_00164#0002</v>
+        <v>obj_00168#0000</v>
       </c>
       <c r="B25" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A25),"LastFixing","D"),"Libor","")</f>
@@ -5082,7 +5084,7 @@
       </c>
       <c r="C25" s="105">
         <f>_xll.qlRateHelperQuoteValue(A25,Trigger)</f>
-        <v>100.035</v>
+        <v>99.84</v>
       </c>
       <c r="D25" s="97">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(A25,Trigger)</f>
@@ -5099,17 +5101,17 @@
       </c>
       <c r="H25" s="98">
         <f>_xll.qlRateHelperEarliestDate($A25,Trigger)</f>
-        <v>42634</v>
+        <v>42725</v>
       </c>
       <c r="I25" s="99">
         <f>_xll.qlRateHelperLatestDate($A25,Trigger)</f>
-        <v>42725</v>
+        <v>42815</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="186" t="str">
         <f>'IMM FRA'!J9</f>
-        <v>obj_00166#0002</v>
+        <v>obj_00161#0000</v>
       </c>
       <c r="B26" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A26),"LastFixing","D"),"Libor","")</f>
@@ -5117,7 +5119,7 @@
       </c>
       <c r="C26" s="105">
         <f>_xll.qlRateHelperQuoteValue(A26,Trigger)</f>
-        <v>99.915000000000006</v>
+        <v>99.7</v>
       </c>
       <c r="D26" s="97">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(A26,Trigger)</f>
@@ -5134,17 +5136,17 @@
       </c>
       <c r="H26" s="98">
         <f>_xll.qlRateHelperEarliestDate($A26,Trigger)</f>
-        <v>42725</v>
+        <v>42809</v>
       </c>
       <c r="I26" s="99">
         <f>_xll.qlRateHelperLatestDate($A26,Trigger)</f>
-        <v>42815</v>
+        <v>42901</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="186" t="str">
         <f>'IMM FRA'!J10</f>
-        <v>obj_0015e#0002</v>
+        <v>obj_00159#0000</v>
       </c>
       <c r="B27" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A27),"LastFixing","D"),"Libor","")</f>
@@ -5152,7 +5154,7 @@
       </c>
       <c r="C27" s="105">
         <f>_xll.qlRateHelperQuoteValue(A27,Trigger)</f>
-        <v>99.79</v>
+        <v>99.552499999999995</v>
       </c>
       <c r="D27" s="97">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(A27,Trigger)</f>
@@ -5169,17 +5171,17 @@
       </c>
       <c r="H27" s="98">
         <f>_xll.qlRateHelperEarliestDate($A27,Trigger)</f>
-        <v>42809</v>
+        <v>42907</v>
       </c>
       <c r="I27" s="99">
         <f>_xll.qlRateHelperLatestDate($A27,Trigger)</f>
-        <v>42901</v>
+        <v>42999</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="186" t="str">
         <f>'IMM FRA'!J11</f>
-        <v>obj_00167#0002</v>
+        <v>obj_00162#0000</v>
       </c>
       <c r="B28" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A28),"LastFixing","D"),"Libor","")</f>
@@ -5187,7 +5189,7 @@
       </c>
       <c r="C28" s="105">
         <f>_xll.qlRateHelperQuoteValue(A28,Trigger)</f>
-        <v>99.665000000000006</v>
+        <v>99.402500000000003</v>
       </c>
       <c r="D28" s="97">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(A28,Trigger)</f>
@@ -5204,17 +5206,17 @@
       </c>
       <c r="H28" s="98">
         <f>_xll.qlRateHelperEarliestDate($A28,Trigger)</f>
-        <v>42907</v>
+        <v>42998</v>
       </c>
       <c r="I28" s="99">
         <f>_xll.qlRateHelperLatestDate($A28,Trigger)</f>
-        <v>42999</v>
+        <v>43089</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="186" t="str">
         <f>'IMM FRA'!J12</f>
-        <v>obj_00165#0002</v>
+        <v>obj_0015a#0000</v>
       </c>
       <c r="B29" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A29),"LastFixing","D"),"Libor","")</f>
@@ -5222,7 +5224,7 @@
       </c>
       <c r="C29" s="105">
         <f>_xll.qlRateHelperQuoteValue(A29,Trigger)</f>
-        <v>99.534999999999997</v>
+        <v>99.252499999999998</v>
       </c>
       <c r="D29" s="97">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(A29,Trigger)</f>
@@ -5239,17 +5241,17 @@
       </c>
       <c r="H29" s="98">
         <f>_xll.qlRateHelperEarliestDate($A29,Trigger)</f>
-        <v>42998</v>
+        <v>43089</v>
       </c>
       <c r="I29" s="99">
         <f>_xll.qlRateHelperLatestDate($A29,Trigger)</f>
-        <v>43089</v>
+        <v>43179</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="186" t="str">
         <f>'IMM FRA'!J13</f>
-        <v>obj_0015b#0002</v>
+        <v>obj_00163#0000</v>
       </c>
       <c r="B30" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A30),"LastFixing","D"),"Libor","")</f>
@@ -5257,7 +5259,7 @@
       </c>
       <c r="C30" s="105">
         <f>_xll.qlRateHelperQuoteValue(A30,Trigger)</f>
-        <v>99.405000000000001</v>
+        <v>99.1</v>
       </c>
       <c r="D30" s="97">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(A30,Trigger)</f>
@@ -5274,17 +5276,17 @@
       </c>
       <c r="H30" s="98">
         <f>_xll.qlRateHelperEarliestDate($A30,Trigger)</f>
-        <v>43089</v>
+        <v>43180</v>
       </c>
       <c r="I30" s="99">
         <f>_xll.qlRateHelperLatestDate($A30,Trigger)</f>
-        <v>43179</v>
+        <v>43272</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="186" t="str">
         <f>'IMM FRA'!J14</f>
-        <v>obj_00163#0002</v>
+        <v>obj_0015b#0000</v>
       </c>
       <c r="B31" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A31),"LastFixing","D"),"Libor","")</f>
@@ -5292,7 +5294,7 @@
       </c>
       <c r="C31" s="105">
         <f>_xll.qlRateHelperQuoteValue(A31,Trigger)</f>
-        <v>99.275000000000006</v>
+        <v>98.947500000000005</v>
       </c>
       <c r="D31" s="97">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment(A31,Trigger)</f>
@@ -5309,17 +5311,17 @@
       </c>
       <c r="H31" s="98">
         <f>_xll.qlRateHelperEarliestDate($A31,Trigger)</f>
-        <v>43180</v>
+        <v>43271</v>
       </c>
       <c r="I31" s="99">
         <f>_xll.qlRateHelperLatestDate($A31,Trigger)</f>
-        <v>43272</v>
+        <v>43363</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="186" t="str">
         <f>'IMM FRA'!J15</f>
-        <v>obj_00162#0002</v>
+        <v>obj_00164#0000</v>
       </c>
       <c r="B32" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A32),"LastFixing","D"),"Libor","")</f>
@@ -5344,17 +5346,17 @@
       </c>
       <c r="H32" s="98">
         <f>_xll.qlRateHelperEarliestDate($A32,Trigger)</f>
-        <v>43271</v>
+        <v>43362</v>
       </c>
       <c r="I32" s="99">
         <f>_xll.qlRateHelperLatestDate($A32,Trigger)</f>
-        <v>43363</v>
+        <v>43453</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="186" t="str">
         <f>'IMM FRA'!J16</f>
-        <v>obj_00168#0002</v>
+        <v>obj_0015c#0000</v>
       </c>
       <c r="B33" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A33),"LastFixing","D"),"Libor","")</f>
@@ -5379,17 +5381,17 @@
       </c>
       <c r="H33" s="98">
         <f>_xll.qlRateHelperEarliestDate($A33,Trigger)</f>
-        <v>43362</v>
+        <v>43453</v>
       </c>
       <c r="I33" s="99">
         <f>_xll.qlRateHelperLatestDate($A33,Trigger)</f>
-        <v>43453</v>
+        <v>43543</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="186" t="str">
         <f>'IMM FRA'!J17</f>
-        <v>obj_00161#0002</v>
+        <v>obj_00165#0000</v>
       </c>
       <c r="B34" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A34),"LastFixing","D"),"Libor","")</f>
@@ -5414,17 +5416,17 @@
       </c>
       <c r="H34" s="98">
         <f>_xll.qlRateHelperEarliestDate($A34,Trigger)</f>
-        <v>43453</v>
+        <v>43544</v>
       </c>
       <c r="I34" s="99">
         <f>_xll.qlRateHelperLatestDate($A34,Trigger)</f>
-        <v>43543</v>
+        <v>43636</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="185" t="str">
         <f>Swaps!L5</f>
-        <v>obj_00145#0009</v>
+        <v>obj_00145#0000</v>
       </c>
       <c r="B35" s="106" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A35),"LastFixing","D"),"Libor","")</f>
@@ -5432,7 +5434,7 @@
       </c>
       <c r="C35" s="107">
         <f>_xll.qlRateHelperQuoteValue($A35,Trigger)</f>
-        <v>-2.3999999999999998E-3</v>
+        <v>-1.9750000000000002E-3</v>
       </c>
       <c r="D35" s="107">
         <f>_xll.qlSwapRateHelperSpread($A35,Trigger)</f>
@@ -5449,18 +5451,18 @@
       </c>
       <c r="H35" s="109">
         <f>_xll.qlRateHelperEarliestDate($A35,Trigger)</f>
-        <v>42142</v>
+        <v>42184</v>
       </c>
       <c r="I35" s="110">
         <f>_xll.qlRateHelperLatestDate($A35,Trigger)</f>
-        <v>42508</v>
+        <v>42550</v>
       </c>
       <c r="K35" s="111"/>
     </row>
     <row r="36" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="186" t="str">
         <f>Swaps!L6</f>
-        <v>obj_00143#0003</v>
+        <v>obj_00158#0000</v>
       </c>
       <c r="B36" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A36),"LastFixing","D"),"Libor","")</f>
@@ -5485,18 +5487,18 @@
       </c>
       <c r="H36" s="98">
         <f>_xll.qlRateHelperEarliestDate($A36,Trigger)</f>
-        <v>42142</v>
+        <v>42184</v>
       </c>
       <c r="I36" s="99">
         <f>_xll.qlRateHelperLatestDate($A36,Trigger)</f>
-        <v>42600</v>
+        <v>42642</v>
       </c>
       <c r="K36" s="111"/>
     </row>
     <row r="37" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="186" t="str">
         <f>Swaps!L7</f>
-        <v>obj_0014c#0003</v>
+        <v>obj_00147#0000</v>
       </c>
       <c r="B37" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A37),"LastFixing","D"),"Libor","")</f>
@@ -5521,18 +5523,18 @@
       </c>
       <c r="H37" s="98">
         <f>_xll.qlRateHelperEarliestDate($A37,Trigger)</f>
-        <v>42142</v>
+        <v>42184</v>
       </c>
       <c r="I37" s="99">
         <f>_xll.qlRateHelperLatestDate($A37,Trigger)</f>
-        <v>42692</v>
+        <v>42733</v>
       </c>
       <c r="K37" s="111"/>
     </row>
     <row r="38" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="186" t="str">
         <f>Swaps!L8</f>
-        <v>obj_00157#0003</v>
+        <v>obj_00143#0000</v>
       </c>
       <c r="B38" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A38),"LastFixing","D"),"Libor","")</f>
@@ -5557,18 +5559,18 @@
       </c>
       <c r="H38" s="98">
         <f>_xll.qlRateHelperEarliestDate($A38,Trigger)</f>
-        <v>42142</v>
+        <v>42184</v>
       </c>
       <c r="I38" s="99">
         <f>_xll.qlRateHelperLatestDate($A38,Trigger)</f>
-        <v>42786</v>
+        <v>42823</v>
       </c>
       <c r="K38" s="111"/>
     </row>
     <row r="39" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="186" t="str">
         <f>Swaps!L9</f>
-        <v>obj_00147#0003</v>
+        <v>obj_00149#0000</v>
       </c>
       <c r="B39" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A39),"LastFixing","D"),"Libor","")</f>
@@ -5576,7 +5578,7 @@
       </c>
       <c r="C39" s="97">
         <f>_xll.qlRateHelperQuoteValue($A39,Trigger)</f>
-        <v>-1.325E-3</v>
+        <v>-3.4999999999999994E-4</v>
       </c>
       <c r="D39" s="97">
         <f>_xll.qlSwapRateHelperSpread($A39,Trigger)</f>
@@ -5593,18 +5595,18 @@
       </c>
       <c r="H39" s="98">
         <f>_xll.qlRateHelperEarliestDate($A39,Trigger)</f>
-        <v>42142</v>
+        <v>42184</v>
       </c>
       <c r="I39" s="99">
         <f>_xll.qlRateHelperLatestDate($A39,Trigger)</f>
-        <v>42873</v>
+        <v>42915</v>
       </c>
       <c r="K39" s="111"/>
     </row>
     <row r="40" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="186" t="str">
         <f>Swaps!L10</f>
-        <v>obj_00150#0003</v>
+        <v>obj_0014f#0000</v>
       </c>
       <c r="B40" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A40),"LastFixing","D"),"Libor","")</f>
@@ -5612,7 +5614,7 @@
       </c>
       <c r="C40" s="97">
         <f>_xll.qlRateHelperQuoteValue($A40,Trigger)</f>
-        <v>7.2500000000000006E-4</v>
+        <v>2.0249999999999999E-3</v>
       </c>
       <c r="D40" s="97">
         <f>_xll.qlSwapRateHelperSpread($A40,Trigger)</f>
@@ -5629,18 +5631,18 @@
       </c>
       <c r="H40" s="98">
         <f>_xll.qlRateHelperEarliestDate($A40,Trigger)</f>
-        <v>42142</v>
+        <v>42184</v>
       </c>
       <c r="I40" s="99">
         <f>_xll.qlRateHelperLatestDate($A40,Trigger)</f>
-        <v>43238</v>
+        <v>43280</v>
       </c>
       <c r="K40" s="111"/>
     </row>
     <row r="41" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="186" t="str">
         <f>Swaps!L11</f>
-        <v>obj_00148#0003</v>
+        <v>obj_00148#0000</v>
       </c>
       <c r="B41" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A41),"LastFixing","D"),"Libor","")</f>
@@ -5648,7 +5650,7 @@
       </c>
       <c r="C41" s="97">
         <f>_xll.qlRateHelperQuoteValue($A41,Trigger)</f>
-        <v>3.0249999999999999E-3</v>
+        <v>4.8250000000000003E-3</v>
       </c>
       <c r="D41" s="97">
         <f>_xll.qlSwapRateHelperSpread($A41,Trigger)</f>
@@ -5665,18 +5667,18 @@
       </c>
       <c r="H41" s="98">
         <f>_xll.qlRateHelperEarliestDate($A41,Trigger)</f>
-        <v>42142</v>
+        <v>42184</v>
       </c>
       <c r="I41" s="99">
         <f>_xll.qlRateHelperLatestDate($A41,Trigger)</f>
-        <v>43605</v>
+        <v>43644</v>
       </c>
       <c r="K41" s="111"/>
     </row>
     <row r="42" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="186" t="str">
         <f>Swaps!L12</f>
-        <v>obj_0014e#0003</v>
+        <v>obj_0014b#0000</v>
       </c>
       <c r="B42" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A42),"LastFixing","D"),"Libor","")</f>
@@ -5684,7 +5686,7 @@
       </c>
       <c r="C42" s="97">
         <f>_xll.qlRateHelperQuoteValue($A42,Trigger)</f>
-        <v>5.3249999999999999E-3</v>
+        <v>7.6500000000000005E-3</v>
       </c>
       <c r="D42" s="97">
         <f>_xll.qlSwapRateHelperSpread($A42,Trigger)</f>
@@ -5701,18 +5703,18 @@
       </c>
       <c r="H42" s="98">
         <f>_xll.qlRateHelperEarliestDate($A42,Trigger)</f>
-        <v>42142</v>
+        <v>42184</v>
       </c>
       <c r="I42" s="99">
         <f>_xll.qlRateHelperLatestDate($A42,Trigger)</f>
-        <v>43969</v>
+        <v>44011</v>
       </c>
       <c r="K42" s="111"/>
     </row>
     <row r="43" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="186" t="str">
         <f>Swaps!L13</f>
-        <v>obj_00158#0003</v>
+        <v>obj_00150#0000</v>
       </c>
       <c r="B43" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A43),"LastFixing","D"),"Libor","")</f>
@@ -5720,7 +5722,7 @@
       </c>
       <c r="C43" s="97">
         <f>_xll.qlRateHelperQuoteValue($A43,Trigger)</f>
-        <v>7.4250000000000002E-3</v>
+        <v>1.0050000000000002E-2</v>
       </c>
       <c r="D43" s="97">
         <f>_xll.qlSwapRateHelperSpread($A43,Trigger)</f>
@@ -5737,18 +5739,18 @@
       </c>
       <c r="H43" s="98">
         <f>_xll.qlRateHelperEarliestDate($A43,Trigger)</f>
-        <v>42142</v>
+        <v>42184</v>
       </c>
       <c r="I43" s="99">
         <f>_xll.qlRateHelperLatestDate($A43,Trigger)</f>
-        <v>44334</v>
+        <v>44376</v>
       </c>
       <c r="K43" s="111"/>
     </row>
     <row r="44" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="186" t="str">
         <f>Swaps!L14</f>
-        <v>obj_00146#0003</v>
+        <v>obj_00144#0000</v>
       </c>
       <c r="B44" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A44),"LastFixing","D"),"Libor","")</f>
@@ -5756,7 +5758,7 @@
       </c>
       <c r="C44" s="97">
         <f>_xll.qlRateHelperQuoteValue($A44,Trigger)</f>
-        <v>9.2750000000000003E-3</v>
+        <v>1.21E-2</v>
       </c>
       <c r="D44" s="97">
         <f>_xll.qlSwapRateHelperSpread($A44,Trigger)</f>
@@ -5773,18 +5775,18 @@
       </c>
       <c r="H44" s="98">
         <f>_xll.qlRateHelperEarliestDate($A44,Trigger)</f>
-        <v>42142</v>
+        <v>42184</v>
       </c>
       <c r="I44" s="99">
         <f>_xll.qlRateHelperLatestDate($A44,Trigger)</f>
-        <v>44699</v>
+        <v>44741</v>
       </c>
       <c r="K44" s="111"/>
     </row>
     <row r="45" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="186" t="str">
         <f>Swaps!L15</f>
-        <v>obj_0014f#0003</v>
+        <v>obj_00152#0000</v>
       </c>
       <c r="B45" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A45),"LastFixing","D"),"Libor","")</f>
@@ -5792,7 +5794,7 @@
       </c>
       <c r="C45" s="97">
         <f>_xll.qlRateHelperQuoteValue($A45,Trigger)</f>
-        <v>1.085E-2</v>
+        <v>1.38E-2</v>
       </c>
       <c r="D45" s="97">
         <f>_xll.qlSwapRateHelperSpread($A45,Trigger)</f>
@@ -5809,18 +5811,18 @@
       </c>
       <c r="H45" s="98">
         <f>_xll.qlRateHelperEarliestDate($A45,Trigger)</f>
-        <v>42142</v>
+        <v>42184</v>
       </c>
       <c r="I45" s="99">
         <f>_xll.qlRateHelperLatestDate($A45,Trigger)</f>
-        <v>45065</v>
+        <v>45106</v>
       </c>
       <c r="K45" s="111"/>
     </row>
     <row r="46" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="186" t="str">
         <f>Swaps!L16</f>
-        <v>obj_00154#0003</v>
+        <v>obj_0014d#0000</v>
       </c>
       <c r="B46" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A46),"LastFixing","D"),"Libor","")</f>
@@ -5828,7 +5830,7 @@
       </c>
       <c r="C46" s="97">
         <f>_xll.qlRateHelperQuoteValue($A46,Trigger)</f>
-        <v>1.21E-2</v>
+        <v>1.5224999999999999E-2</v>
       </c>
       <c r="D46" s="97">
         <f>_xll.qlSwapRateHelperSpread($A46,Trigger)</f>
@@ -5845,17 +5847,17 @@
       </c>
       <c r="H46" s="98">
         <f>_xll.qlRateHelperEarliestDate($A46,Trigger)</f>
-        <v>42142</v>
+        <v>42184</v>
       </c>
       <c r="I46" s="99">
         <f>_xll.qlRateHelperLatestDate($A46,Trigger)</f>
-        <v>45433</v>
+        <v>45471</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="186" t="str">
         <f>Swaps!L17</f>
-        <v>obj_0014a#0003</v>
+        <v>obj_0014c#0000</v>
       </c>
       <c r="B47" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A47),"LastFixing","D"),"Libor","")</f>
@@ -5863,7 +5865,7 @@
       </c>
       <c r="C47" s="97">
         <f>_xll.qlRateHelperQuoteValue($A47,Trigger)</f>
-        <v>1.3100000000000001E-2</v>
+        <v>1.6375000000000001E-2</v>
       </c>
       <c r="D47" s="97">
         <f>_xll.qlSwapRateHelperSpread($A47,Trigger)</f>
@@ -5880,17 +5882,17 @@
       </c>
       <c r="H47" s="98">
         <f>_xll.qlRateHelperEarliestDate($A47,Trigger)</f>
-        <v>42142</v>
+        <v>42184</v>
       </c>
       <c r="I47" s="99">
         <f>_xll.qlRateHelperLatestDate($A47,Trigger)</f>
-        <v>45796</v>
+        <v>45838</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="186" t="str">
         <f>Swaps!L18</f>
-        <v>obj_00153#0003</v>
+        <v>obj_00156#0000</v>
       </c>
       <c r="B48" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A48),"LastFixing","D"),"Libor","")</f>
@@ -5898,7 +5900,7 @@
       </c>
       <c r="C48" s="97">
         <f>_xll.qlRateHelperQuoteValue($A48,Trigger)</f>
-        <v>1.46E-2</v>
+        <v>1.8175E-2</v>
       </c>
       <c r="D48" s="97">
         <f>_xll.qlSwapRateHelperSpread($A48,Trigger)</f>
@@ -5915,17 +5917,17 @@
       </c>
       <c r="H48" s="98">
         <f>_xll.qlRateHelperEarliestDate($A48,Trigger)</f>
-        <v>42142</v>
+        <v>42184</v>
       </c>
       <c r="I48" s="99">
         <f>_xll.qlRateHelperLatestDate($A48,Trigger)</f>
-        <v>46525</v>
+        <v>46567</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="186" t="str">
         <f>Swaps!L19</f>
-        <v>obj_0014b#0003</v>
+        <v>obj_00157#0000</v>
       </c>
       <c r="B49" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A49),"LastFixing","D"),"Libor","")</f>
@@ -5933,7 +5935,7 @@
       </c>
       <c r="C49" s="97">
         <f>_xll.qlRateHelperQuoteValue($A49,Trigger)</f>
-        <v>1.6250000000000001E-2</v>
+        <v>2.0025000000000001E-2</v>
       </c>
       <c r="D49" s="97">
         <f>_xll.qlSwapRateHelperSpread($A49,Trigger)</f>
@@ -5950,17 +5952,17 @@
       </c>
       <c r="H49" s="98">
         <f>_xll.qlRateHelperEarliestDate($A49,Trigger)</f>
-        <v>42142</v>
+        <v>42184</v>
       </c>
       <c r="I49" s="99">
         <f>_xll.qlRateHelperLatestDate($A49,Trigger)</f>
-        <v>47623</v>
+        <v>47662</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="186" t="str">
         <f>Swaps!L20</f>
-        <v>obj_00151#0003</v>
+        <v>obj_00154#0000</v>
       </c>
       <c r="B50" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A50),"LastFixing","D"),"Libor","")</f>
@@ -5968,7 +5970,7 @@
       </c>
       <c r="C50" s="97">
         <f>_xll.qlRateHelperQuoteValue($A50,Trigger)</f>
-        <v>1.7975000000000001E-2</v>
+        <v>2.1874999999999999E-2</v>
       </c>
       <c r="D50" s="97">
         <f>_xll.qlSwapRateHelperSpread($A50,Trigger)</f>
@@ -5985,17 +5987,17 @@
       </c>
       <c r="H50" s="98">
         <f>_xll.qlRateHelperEarliestDate($A50,Trigger)</f>
-        <v>42142</v>
+        <v>42184</v>
       </c>
       <c r="I50" s="99">
         <f>_xll.qlRateHelperLatestDate($A50,Trigger)</f>
-        <v>49447</v>
+        <v>49489</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="186" t="str">
         <f>Swaps!L21</f>
-        <v>obj_00155#0003</v>
+        <v>obj_00151#0000</v>
       </c>
       <c r="B51" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A51),"LastFixing","D"),"Libor","")</f>
@@ -6003,7 +6005,7 @@
       </c>
       <c r="C51" s="97">
         <f>_xll.qlRateHelperQuoteValue($A51,Trigger)</f>
-        <v>1.8775E-2</v>
+        <v>2.2675000000000001E-2</v>
       </c>
       <c r="D51" s="97">
         <f>_xll.qlSwapRateHelperSpread($A51,Trigger)</f>
@@ -6020,17 +6022,17 @@
       </c>
       <c r="H51" s="98">
         <f>_xll.qlRateHelperEarliestDate($A51,Trigger)</f>
-        <v>42142</v>
+        <v>42184</v>
       </c>
       <c r="I51" s="99">
         <f>_xll.qlRateHelperLatestDate($A51,Trigger)</f>
-        <v>51274</v>
+        <v>51316</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="186" t="str">
         <f>Swaps!L22</f>
-        <v>obj_00149#0003</v>
+        <v>obj_00155#0000</v>
       </c>
       <c r="B52" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A52),"LastFixing","D"),"Libor","")</f>
@@ -6055,17 +6057,17 @@
       </c>
       <c r="H52" s="98">
         <f>_xll.qlRateHelperEarliestDate($A52,Trigger)</f>
-        <v>42142</v>
+        <v>42184</v>
       </c>
       <c r="I52" s="99">
         <f>_xll.qlRateHelperLatestDate($A52,Trigger)</f>
-        <v>52005</v>
+        <v>52047</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="186" t="str">
         <f>Swaps!L23</f>
-        <v>obj_00152#0003</v>
+        <v>obj_0014a#0000</v>
       </c>
       <c r="B53" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A53),"LastFixing","D"),"Libor","")</f>
@@ -6073,7 +6075,7 @@
       </c>
       <c r="C53" s="97">
         <f>_xll.qlRateHelperQuoteValue($A53,Trigger)</f>
-        <v>1.9075000000000002E-2</v>
+        <v>2.2975000000000002E-2</v>
       </c>
       <c r="D53" s="97">
         <f>_xll.qlSwapRateHelperSpread($A53,Trigger)</f>
@@ -6090,17 +6092,17 @@
       </c>
       <c r="H53" s="98">
         <f>_xll.qlRateHelperEarliestDate($A53,Trigger)</f>
-        <v>42142</v>
+        <v>42184</v>
       </c>
       <c r="I53" s="99">
         <f>_xll.qlRateHelperLatestDate($A53,Trigger)</f>
-        <v>53101</v>
+        <v>53142</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="186" t="str">
         <f>Swaps!L24</f>
-        <v>obj_00144#0003</v>
+        <v>obj_00146#0000</v>
       </c>
       <c r="B54" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A54),"LastFixing","D"),"Libor","")</f>
@@ -6125,17 +6127,17 @@
       </c>
       <c r="H54" s="98">
         <f>_xll.qlRateHelperEarliestDate($A54,Trigger)</f>
-        <v>42142</v>
+        <v>42184</v>
       </c>
       <c r="I54" s="99">
         <f>_xll.qlRateHelperLatestDate($A54,Trigger)</f>
-        <v>54926</v>
+        <v>54968</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="186" t="str">
         <f>Swaps!L25</f>
-        <v>obj_0014d#0003</v>
+        <v>obj_0014e#0000</v>
       </c>
       <c r="B55" s="96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A55),"LastFixing","D"),"Libor","")</f>
@@ -6160,17 +6162,17 @@
       </c>
       <c r="H55" s="98">
         <f>_xll.qlRateHelperEarliestDate($A55,Trigger)</f>
-        <v>42142</v>
+        <v>42184</v>
       </c>
       <c r="I55" s="99">
         <f>_xll.qlRateHelperLatestDate($A55,Trigger)</f>
-        <v>56752</v>
+        <v>56794</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="187" t="str">
         <f>Swaps!L26</f>
-        <v>obj_00156#0003</v>
+        <v>obj_00153#0000</v>
       </c>
       <c r="B56" s="100" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(A56),"LastFixing","D"),"Libor","")</f>
@@ -6195,11 +6197,11 @@
       </c>
       <c r="H56" s="103">
         <f>_xll.qlRateHelperEarliestDate($A56,Trigger)</f>
-        <v>42142</v>
+        <v>42184</v>
       </c>
       <c r="I56" s="104">
         <f>_xll.qlRateHelperLatestDate($A56,Trigger)</f>
-        <v>60406</v>
+        <v>60447</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6267,7 +6269,7 @@
       </c>
       <c r="J1" s="111">
         <f t="array" ref="J1:J126">_xll.qlPiecewiseYieldCurveData(YieldCurve)</f>
-        <v>-1.845291771263754E-3</v>
+        <v>-2.5347486259598008E-3</v>
       </c>
       <c r="K1" s="64"/>
     </row>
@@ -6288,7 +6290,7 @@
       </c>
       <c r="F2" s="68">
         <f>_xll.qlRateHelperRate($D2)</f>
-        <v>-1.82E-3</v>
+        <v>-2.5000000000000001E-3</v>
       </c>
       <c r="G2" s="68">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
@@ -6296,14 +6298,14 @@
       </c>
       <c r="H2" s="74">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>42139</v>
+        <v>42181</v>
       </c>
       <c r="I2" s="75">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>42142</v>
+        <v>42184</v>
       </c>
       <c r="J2" s="111">
-        <v>-1.845291771263754E-3</v>
+        <v>-2.5347486259598008E-3</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -6314,7 +6316,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="67" t="str">
-        <v>obj_0017d</v>
+        <v>obj_0017f</v>
       </c>
       <c r="E3" s="67" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D3),"LastFixing","D"),"Libor","")</f>
@@ -6322,7 +6324,7 @@
       </c>
       <c r="F3" s="68">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>-2.66E-3</v>
+        <v>-2.4100000000000002E-3</v>
       </c>
       <c r="G3" s="68">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
@@ -6330,14 +6332,14 @@
       </c>
       <c r="H3" s="74">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>42142</v>
+        <v>42184</v>
       </c>
       <c r="I3" s="75">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>42150</v>
+        <v>42191</v>
       </c>
       <c r="J3" s="111">
-        <v>-2.464733506549942E-3</v>
+        <v>-2.4708952209180051E-3</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -6348,15 +6350,15 @@
         <v>2</v>
       </c>
       <c r="D4" s="67" t="str">
-        <v>obj_00160</v>
+        <v>obj_00189</v>
       </c>
       <c r="E4" s="67" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D4),"LastFixing","D"),"Libor","")</f>
-        <v>FUTSEK3F1_Quote</v>
+        <v>SEK1MD_Quote</v>
       </c>
       <c r="F4" s="68">
         <f>_xll.qlRateHelperRate($D4)</f>
-        <v>-2.3999999999999577E-3</v>
+        <v>-2.63E-3</v>
       </c>
       <c r="G4" s="68">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
@@ -6364,14 +6366,14 @@
       </c>
       <c r="H4" s="74">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>42172</v>
+        <v>42184</v>
       </c>
       <c r="I4" s="75">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>42264</v>
+        <v>42214</v>
       </c>
       <c r="J4" s="111">
-        <v>-2.440961291492065E-3</v>
+        <v>-2.6548135364323445E-3</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -6382,15 +6384,15 @@
         <v>118</v>
       </c>
       <c r="D5" s="67" t="str">
-        <v>obj_0015d</v>
+        <v>obj_00181</v>
       </c>
       <c r="E5" s="67" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D5),"LastFixing","D"),"Libor","")</f>
-        <v>FUTSEK3F2_Quote</v>
+        <v>SEK2MD_Quote</v>
       </c>
       <c r="F5" s="68">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>-2.6000000000001577E-3</v>
+        <v>-2.4300000000000003E-3</v>
       </c>
       <c r="G5" s="68">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
@@ -6398,27 +6400,27 @@
       </c>
       <c r="H5" s="74">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>42263</v>
+        <v>42184</v>
       </c>
       <c r="I5" s="75">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>42354</v>
+        <v>42247</v>
       </c>
       <c r="J5" s="111">
-        <v>-2.5240466630262041E-3</v>
+        <v>-2.4674773953387271E-3</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D6" s="67" t="str">
-        <v>obj_0015a</v>
+        <v>obj_0015d</v>
       </c>
       <c r="E6" s="67" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D6),"LastFixing","D"),"Libor","")</f>
-        <v>FUTSEK3F3_Quote</v>
+        <v>FUTSEK3F1_Quote</v>
       </c>
       <c r="F6" s="68">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>-2.4999999999999467E-3</v>
+        <v>-2.2999999999999687E-3</v>
       </c>
       <c r="G6" s="68">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
@@ -6426,27 +6428,27 @@
       </c>
       <c r="H6" s="74">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>42354</v>
+        <v>42263</v>
       </c>
       <c r="I6" s="75">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>42445</v>
+        <v>42354</v>
       </c>
       <c r="J6" s="111">
-        <v>-2.5274596979053994E-3</v>
+        <v>-2.3911310243996307E-3</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D7" s="67" t="str">
-        <v>obj_0015c</v>
+        <v>obj_00166</v>
       </c>
       <c r="E7" s="67" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D7),"LastFixing","D"),"Libor","")</f>
-        <v>FUTSEK3F4_Quote</v>
+        <v>FUTSEK3F2_Quote</v>
       </c>
       <c r="F7" s="68">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>-2.0999999999999908E-3</v>
+        <v>-2.0499999999998852E-3</v>
       </c>
       <c r="G7" s="68">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
@@ -6454,27 +6456,27 @@
       </c>
       <c r="H7" s="74">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>42445</v>
+        <v>42354</v>
       </c>
       <c r="I7" s="75">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>42537</v>
+        <v>42445</v>
       </c>
       <c r="J7" s="111">
-        <v>-2.4355240747350793E-3</v>
+        <v>-2.2835441753039621E-3</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D8" s="67" t="str">
-        <v>obj_0015f</v>
+        <v>obj_0015e</v>
       </c>
       <c r="E8" s="67" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D8),"LastFixing","D"),"Libor","")</f>
-        <v>FUTSEK3F5_Quote</v>
+        <v>FUTSEK3F3_Quote</v>
       </c>
       <c r="F8" s="68">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>-1.3499999999999623E-3</v>
+        <v>-1.4499999999999513E-3</v>
       </c>
       <c r="G8" s="68">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
@@ -6482,27 +6484,27 @@
       </c>
       <c r="H8" s="74">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>42536</v>
+        <v>42445</v>
       </c>
       <c r="I8" s="75">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>42628</v>
+        <v>42537</v>
       </c>
       <c r="J8" s="111">
-        <v>-2.23567792838214E-3</v>
+        <v>-2.0734087235727504E-3</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D9" s="67" t="str">
-        <v>obj_00164</v>
+        <v>obj_00167</v>
       </c>
       <c r="E9" s="67" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D9),"LastFixing","D"),"Libor","")</f>
-        <v>FUTSEK3F6_Quote</v>
+        <v>FUTSEK3F4_Quote</v>
       </c>
       <c r="F9" s="68">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>-3.5000000000007248E-4</v>
+        <v>-6.7499999999998117E-4</v>
       </c>
       <c r="G9" s="68">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -6510,27 +6512,27 @@
       </c>
       <c r="H9" s="74">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>42634</v>
+        <v>42536</v>
       </c>
       <c r="I9" s="75">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>42725</v>
+        <v>42628</v>
       </c>
       <c r="J9" s="111">
-        <v>-1.9275061235773049E-3</v>
+        <v>-1.7893487176132629E-3</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D10" s="67" t="str">
-        <v>obj_00147</v>
+        <v>obj_00160</v>
       </c>
       <c r="E10" s="67" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D10),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S2Y_Quote</v>
+        <v>FUTSEK3F5_Quote</v>
       </c>
       <c r="F10" s="68">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>-1.325E-3</v>
+        <v>3.4999999999996145E-4</v>
       </c>
       <c r="G10" s="68">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -6538,27 +6540,27 @@
       </c>
       <c r="H10" s="74">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>42142</v>
+        <v>42634</v>
       </c>
       <c r="I10" s="75">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>42873</v>
+        <v>42725</v>
       </c>
       <c r="J10" s="111">
-        <v>-1.3716903754509796E-3</v>
+        <v>-1.4111908434700996E-3</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D11" s="67" t="str">
-        <v>obj_00150</v>
+        <v>obj_00168</v>
       </c>
       <c r="E11" s="67" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D11),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S3Y_Quote</v>
+        <v>FUTSEK3F6_Quote</v>
       </c>
       <c r="F11" s="68">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>7.2500000000000006E-4</v>
+        <v>1.5999999999999348E-3</v>
       </c>
       <c r="G11" s="68">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
@@ -6566,27 +6568,27 @@
       </c>
       <c r="H11" s="74">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>42142</v>
+        <v>42725</v>
       </c>
       <c r="I11" s="75">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>43238</v>
+        <v>42815</v>
       </c>
       <c r="J11" s="111">
-        <v>6.8888454628253078E-4</v>
+        <v>-9.80626200526168E-4</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D12" s="67" t="str">
-        <v>obj_00148</v>
+        <v>obj_00149</v>
       </c>
       <c r="E12" s="67" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D12),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S4Y_Quote</v>
+        <v>SEKAB3S2Y_Quote</v>
       </c>
       <c r="F12" s="68">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>3.0000000000000005E-3</v>
+        <v>-3.4999999999999994E-4</v>
       </c>
       <c r="G12" s="68">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -6594,27 +6596,27 @@
       </c>
       <c r="H12" s="74">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>42142</v>
+        <v>42184</v>
       </c>
       <c r="I12" s="75">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>43605</v>
+        <v>42915</v>
       </c>
       <c r="J12" s="111">
-        <v>2.9768425538223334E-3</v>
+        <v>-4.0325669409742028E-4</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D13" s="67" t="str">
-        <v>obj_0014e</v>
+        <v>obj_0014f</v>
       </c>
       <c r="E13" s="67" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D13),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S5Y_Quote</v>
+        <v>SEKAB3S3Y_Quote</v>
       </c>
       <c r="F13" s="68">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>5.3E-3</v>
+        <v>2.0249999999999999E-3</v>
       </c>
       <c r="G13" s="68">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -6622,27 +6624,27 @@
       </c>
       <c r="H13" s="74">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>42142</v>
+        <v>42184</v>
       </c>
       <c r="I13" s="75">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>43969</v>
+        <v>43280</v>
       </c>
       <c r="J13" s="111">
-        <v>5.2974362476007853E-3</v>
+        <v>1.9848519926878852E-3</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D14" s="67" t="str">
-        <v>obj_00158</v>
+        <v>obj_00148</v>
       </c>
       <c r="E14" s="67" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D14),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S6Y_Quote</v>
+        <v>SEKAB3S4Y_Quote</v>
       </c>
       <c r="F14" s="68">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>7.4000000000000003E-3</v>
+        <v>4.8250000000000003E-3</v>
       </c>
       <c r="G14" s="68">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -6650,27 +6652,27 @@
       </c>
       <c r="H14" s="74">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>42142</v>
+        <v>42184</v>
       </c>
       <c r="I14" s="75">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>44334</v>
+        <v>43644</v>
       </c>
       <c r="J14" s="111">
-        <v>7.432654007387041E-3</v>
+        <v>4.8035911551478645E-3</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D15" s="67" t="str">
-        <v>obj_00146</v>
+        <v>obj_0014b</v>
       </c>
       <c r="E15" s="67" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D15),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S7Y_Quote</v>
+        <v>SEKAB3S5Y_Quote</v>
       </c>
       <c r="F15" s="68">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>9.2750000000000003E-3</v>
+        <v>7.6500000000000005E-3</v>
       </c>
       <c r="G15" s="68">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
@@ -6678,27 +6680,27 @@
       </c>
       <c r="H15" s="74">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>42142</v>
+        <v>42184</v>
       </c>
       <c r="I15" s="75">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>44699</v>
+        <v>44011</v>
       </c>
       <c r="J15" s="111">
-        <v>9.3542901612848339E-3</v>
+        <v>7.6609841780370036E-3</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D16" s="67" t="str">
-        <v>obj_0014f</v>
+        <v>obj_00150</v>
       </c>
       <c r="E16" s="67" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D16),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S8Y_Quote</v>
+        <v>SEKAB3S6Y_Quote</v>
       </c>
       <c r="F16" s="68">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>1.085E-2</v>
+        <v>1.0050000000000002E-2</v>
       </c>
       <c r="G16" s="68">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
@@ -6706,23 +6708,23 @@
       </c>
       <c r="H16" s="74">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>42142</v>
+        <v>42184</v>
       </c>
       <c r="I16" s="75">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>45065</v>
+        <v>44376</v>
       </c>
       <c r="J16" s="111">
-        <v>1.0981219484361822E-2</v>
+        <v>1.0111371395571177E-2</v>
       </c>
     </row>
     <row r="17" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D17" s="67" t="str">
-        <v>obj_00154</v>
+        <v>obj_00144</v>
       </c>
       <c r="E17" s="67" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D17),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S9Y_Quote</v>
+        <v>SEKAB3S7Y_Quote</v>
       </c>
       <c r="F17" s="68">
         <f>_xll.qlRateHelperRate($D17)</f>
@@ -6734,27 +6736,27 @@
       </c>
       <c r="H17" s="74">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>42142</v>
+        <v>42184</v>
       </c>
       <c r="I17" s="75">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>45433</v>
+        <v>44741</v>
       </c>
       <c r="J17" s="111">
-        <v>1.2276982667726999E-2</v>
+        <v>1.222308495516098E-2</v>
       </c>
     </row>
     <row r="18" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D18" s="67" t="str">
-        <v>obj_0014a</v>
+        <v>obj_00152</v>
       </c>
       <c r="E18" s="67" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D18),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S10Y_Quote</v>
+        <v>SEKAB3S8Y_Quote</v>
       </c>
       <c r="F18" s="68">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>1.3075000000000002E-2</v>
+        <v>1.38E-2</v>
       </c>
       <c r="G18" s="68">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
@@ -6762,27 +6764,27 @@
       </c>
       <c r="H18" s="74">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>42142</v>
+        <v>42184</v>
       </c>
       <c r="I18" s="75">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>45796</v>
+        <v>45106</v>
       </c>
       <c r="J18" s="111">
-        <v>1.3295465564381048E-2</v>
+        <v>1.3989477320238869E-2</v>
       </c>
     </row>
     <row r="19" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D19" s="67" t="str">
-        <v>obj_00153</v>
+        <v>obj_0014d</v>
       </c>
       <c r="E19" s="67" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D19),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S12Y_Quote</v>
+        <v>SEKAB3S9Y_Quote</v>
       </c>
       <c r="F19" s="68">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>1.4574999999999999E-2</v>
+        <v>1.5224999999999999E-2</v>
       </c>
       <c r="G19" s="68">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
@@ -6790,27 +6792,27 @@
       </c>
       <c r="H19" s="74">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>42142</v>
+        <v>42184</v>
       </c>
       <c r="I19" s="75">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>46525</v>
+        <v>45471</v>
       </c>
       <c r="J19" s="111">
-        <v>1.4874322736659198E-2</v>
+        <v>1.547808105112896E-2</v>
       </c>
     </row>
     <row r="20" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D20" s="67" t="str">
-        <v>obj_0014b</v>
+        <v>obj_0014c</v>
       </c>
       <c r="E20" s="67" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D20),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S15Y_Quote</v>
+        <v>SEKAB3S10Y_Quote</v>
       </c>
       <c r="F20" s="68">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>1.6225E-2</v>
+        <v>1.6375000000000001E-2</v>
       </c>
       <c r="G20" s="68">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
@@ -6818,27 +6820,27 @@
       </c>
       <c r="H20" s="74">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>42142</v>
+        <v>42184</v>
       </c>
       <c r="I20" s="75">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>47623</v>
+        <v>45838</v>
       </c>
       <c r="J20" s="111">
-        <v>1.6634686296622736E-2</v>
+        <v>1.6690922949266124E-2</v>
       </c>
     </row>
     <row r="21" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D21" s="67" t="str">
-        <v>obj_00151</v>
+        <v>obj_00156</v>
       </c>
       <c r="E21" s="67" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D21),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S20Y_Quote</v>
+        <v>SEKAB3S12Y_Quote</v>
       </c>
       <c r="F21" s="68">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>1.7950000000000001E-2</v>
+        <v>1.8175E-2</v>
       </c>
       <c r="G21" s="68">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
@@ -6846,27 +6848,27 @@
       </c>
       <c r="H21" s="74">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>42142</v>
+        <v>42184</v>
       </c>
       <c r="I21" s="75">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>49447</v>
+        <v>46567</v>
       </c>
       <c r="J21" s="111">
-        <v>1.8514616791679855E-2</v>
+        <v>1.8610338024645182E-2</v>
       </c>
     </row>
     <row r="22" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D22" s="67" t="str">
-        <v>obj_00155</v>
+        <v>obj_00157</v>
       </c>
       <c r="E22" s="67" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D22),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S25Y_Quote</v>
+        <v>SEKAB3S15Y_Quote</v>
       </c>
       <c r="F22" s="68">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>1.8749999999999999E-2</v>
+        <v>2.0025000000000001E-2</v>
       </c>
       <c r="G22" s="68">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
@@ -6874,27 +6876,27 @@
       </c>
       <c r="H22" s="74">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>42142</v>
+        <v>42184</v>
       </c>
       <c r="I22" s="75">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>51274</v>
+        <v>47662</v>
       </c>
       <c r="J22" s="111">
-        <v>1.9363409076302619E-2</v>
+        <v>2.0609462807436984E-2</v>
       </c>
     </row>
     <row r="23" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D23" s="67" t="str">
-        <v>obj_00152</v>
+        <v>obj_00154</v>
       </c>
       <c r="E23" s="67" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D23),"LastFixing","D"),"Libor","")</f>
-        <v>SEKAB3S30Y_Quote</v>
+        <v>SEKAB3S20Y_Quote</v>
       </c>
       <c r="F23" s="68">
         <f>_xll.qlRateHelperRate($D23)</f>
-        <v>1.9050000000000001E-2</v>
+        <v>2.1874999999999999E-2</v>
       </c>
       <c r="G23" s="68">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
@@ -6902,70 +6904,70 @@
       </c>
       <c r="H23" s="74">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>42142</v>
+        <v>42184</v>
       </c>
       <c r="I23" s="75">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>53101</v>
+        <v>49489</v>
       </c>
       <c r="J23" s="111">
-        <v>1.9627025119016088E-2</v>
+        <v>2.2651216196234829E-2</v>
       </c>
     </row>
     <row r="24" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D24" s="67" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E24" s="67" t="e">
+      <c r="D24" s="67" t="str">
+        <v>obj_00151</v>
+      </c>
+      <c r="E24" s="67" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D24),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F24" s="68" t="e">
+        <v>SEKAB3S25Y_Quote</v>
+      </c>
+      <c r="F24" s="68">
         <f>_xll.qlRateHelperRate($D24)</f>
-        <v>#VALUE!</v>
+        <v>2.2675000000000001E-2</v>
       </c>
       <c r="G24" s="68">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
         <v>0</v>
       </c>
-      <c r="H24" s="74" t="e">
+      <c r="H24" s="74">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I24" s="75" t="e">
+        <v>42184</v>
+      </c>
+      <c r="I24" s="75">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J24" s="111" t="e">
-        <v>#N/A</v>
+        <v>51316</v>
+      </c>
+      <c r="J24" s="111">
+        <v>2.3489853579508235E-2</v>
       </c>
     </row>
     <row r="25" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D25" s="67" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E25" s="67" t="e">
+      <c r="D25" s="67" t="str">
+        <v>obj_0014a</v>
+      </c>
+      <c r="E25" s="67" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xll.qlRateHelperQuoteName(D25),"LastFixing","D"),"Libor","")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F25" s="68" t="e">
+        <v>SEKAB3S30Y_Quote</v>
+      </c>
+      <c r="F25" s="68">
         <f>_xll.qlRateHelperRate($D25)</f>
-        <v>#VALUE!</v>
+        <v>2.2975000000000002E-2</v>
       </c>
       <c r="G25" s="68">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
         <v>0</v>
       </c>
-      <c r="H25" s="74" t="e">
+      <c r="H25" s="74">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I25" s="75" t="e">
+        <v>42184</v>
+      </c>
+      <c r="I25" s="75">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J25" s="111" t="e">
-        <v>#N/A</v>
+        <v>53142</v>
+      </c>
+      <c r="J25" s="111">
+        <v>2.3730335668443826E-2</v>
       </c>
     </row>
     <row r="26" spans="4:10" x14ac:dyDescent="0.2">
@@ -9915,7 +9917,7 @@
       </c>
       <c r="H3" s="179" t="str">
         <f>_xll.qlIborIndex(,,"1D",C3,Currency,D3,E3,F3,G3,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00141#0001</v>
+        <v>obj_00141#0000</v>
       </c>
       <c r="I3" s="180" t="str">
         <f t="shared" ref="I3:I20" si="0">Currency&amp;$B3&amp;"D"&amp;QuoteSuffix</f>
@@ -9923,7 +9925,7 @@
       </c>
       <c r="J3" s="181" t="str">
         <f>_xll.qlDepositRateHelper(,I3,H3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00159#0001</v>
+        <v>obj_0015f#0000</v>
       </c>
       <c r="K3" s="169"/>
       <c r="L3" s="45"/>
@@ -9950,7 +9952,7 @@
       </c>
       <c r="H4" s="182" t="str">
         <f>_xll.qlIborIndex(,,"1D",C4,Currency,D4,E4,F4,G4,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0016b#0001</v>
+        <v>obj_0016b#0000</v>
       </c>
       <c r="I4" s="182" t="str">
         <f t="shared" si="0"/>
@@ -9958,7 +9960,7 @@
       </c>
       <c r="J4" s="183" t="str">
         <f>_xll.qlDepositRateHelper(,I4,H4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0016c#0001</v>
+        <v>obj_0016c#0000</v>
       </c>
       <c r="K4" s="174"/>
       <c r="L4" s="45"/>
@@ -9985,7 +9987,7 @@
       </c>
       <c r="H5" s="182" t="str">
         <f>_xll.qlIborIndex(,,"2D",C5,Currency,D5,E5,F5,G5,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00169#0001</v>
+        <v>obj_00169#0000</v>
       </c>
       <c r="I5" s="182" t="str">
         <f t="shared" si="0"/>
@@ -9993,7 +9995,7 @@
       </c>
       <c r="J5" s="183" t="str">
         <f>_xll.qlDepositRateHelper(,I5,H5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0016a#0001</v>
+        <v>obj_0016a#0000</v>
       </c>
       <c r="K5" s="174"/>
       <c r="L5" s="45"/>
@@ -10020,7 +10022,7 @@
       </c>
       <c r="H6" s="182" t="str">
         <f>_xll.qlIborIndex(,,"1W",C6,Currency,D6,E6,F6,G6,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0016e#0001</v>
+        <v>obj_00171#0000</v>
       </c>
       <c r="I6" s="182" t="str">
         <f t="shared" si="0"/>
@@ -10028,7 +10030,7 @@
       </c>
       <c r="J6" s="183" t="str">
         <f>_xll.qlDepositRateHelper(,I6,H6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0017d#0001</v>
+        <v>obj_0017f#0000</v>
       </c>
       <c r="K6" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(J6)</f>
@@ -10058,7 +10060,7 @@
       </c>
       <c r="H7" s="182" t="str">
         <f>_xll.qlIborIndex(,,B7,C7,Currency,D7,E7,F7,G7,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00176#0001</v>
+        <v>obj_00177#0000</v>
       </c>
       <c r="I7" s="182" t="str">
         <f t="shared" si="0"/>
@@ -10066,7 +10068,7 @@
       </c>
       <c r="J7" s="183" t="str">
         <f>_xll.qlDepositRateHelper(,I7,H7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00184#0001</v>
+        <v>obj_0017e#0000</v>
       </c>
       <c r="K7" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(J7)</f>
@@ -10096,7 +10098,7 @@
       </c>
       <c r="H8" s="182" t="str">
         <f>_xll.qlIborIndex(,,B8,C8,Currency,D8,E8,F8,G8,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0017b#0001</v>
+        <v>obj_00173#0000</v>
       </c>
       <c r="I8" s="182" t="str">
         <f t="shared" si="0"/>
@@ -10104,7 +10106,7 @@
       </c>
       <c r="J8" s="183" t="str">
         <f>_xll.qlDepositRateHelper(,I8,H8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00189#0001</v>
+        <v>obj_00188#0000</v>
       </c>
       <c r="K8" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(J8)</f>
@@ -10134,7 +10136,7 @@
       </c>
       <c r="H9" s="182" t="str">
         <f>_xll.qlIborIndex(,,B9,C9,Currency,D9,E9,F9,G9,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00170#0001</v>
+        <v>obj_00176#0000</v>
       </c>
       <c r="I9" s="182" t="str">
         <f t="shared" si="0"/>
@@ -10142,7 +10144,7 @@
       </c>
       <c r="J9" s="183" t="str">
         <f>_xll.qlDepositRateHelper(,I9,H9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00182#0001</v>
+        <v>obj_00189#0000</v>
       </c>
       <c r="K9" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(J9)</f>
@@ -10172,7 +10174,7 @@
       </c>
       <c r="H10" s="182" t="str">
         <f>_xll.qlIborIndex(,,B10,C10,Currency,D10,E10,F10,G10,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00175#0001</v>
+        <v>obj_00175#0000</v>
       </c>
       <c r="I10" s="182" t="str">
         <f t="shared" si="0"/>
@@ -10180,7 +10182,7 @@
       </c>
       <c r="J10" s="183" t="str">
         <f>_xll.qlDepositRateHelper(,I10,H10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0017e#0001</v>
+        <v>obj_00181#0000</v>
       </c>
       <c r="K10" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(J10)</f>
@@ -10210,7 +10212,7 @@
       </c>
       <c r="H11" s="182" t="str">
         <f>_xll.qlIborIndex(,,B11,C11,Currency,D11,E11,F11,G11,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00172#0001</v>
+        <v>obj_0017a#0000</v>
       </c>
       <c r="I11" s="182" t="str">
         <f t="shared" si="0"/>
@@ -10218,7 +10220,7 @@
       </c>
       <c r="J11" s="183" t="str">
         <f>_xll.qlDepositRateHelper(,I11,H11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00183#0001</v>
+        <v>obj_0017c#0000</v>
       </c>
       <c r="K11" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(J11)</f>
@@ -10248,7 +10250,7 @@
       </c>
       <c r="H12" s="182" t="str">
         <f>_xll.qlIborIndex(,,B12,C12,Currency,D12,E12,F12,G12,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00171#0001</v>
+        <v>obj_00178#0000</v>
       </c>
       <c r="I12" s="182" t="str">
         <f t="shared" si="0"/>
@@ -10256,7 +10258,7 @@
       </c>
       <c r="J12" s="183" t="str">
         <f>_xll.qlDepositRateHelper(,I12,H12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0018a#0001</v>
+        <v>obj_0018a#0000</v>
       </c>
       <c r="K12" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(J12)</f>
@@ -10286,7 +10288,7 @@
       </c>
       <c r="H13" s="182" t="str">
         <f>_xll.qlIborIndex(,,B13,C13,Currency,D13,E13,F13,G13,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00178#0001</v>
+        <v>obj_0017b#0000</v>
       </c>
       <c r="I13" s="182" t="str">
         <f t="shared" si="0"/>
@@ -10294,7 +10296,7 @@
       </c>
       <c r="J13" s="183" t="str">
         <f>_xll.qlDepositRateHelper(,I13,H13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00188#0001</v>
+        <v>obj_00186#0000</v>
       </c>
       <c r="K13" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(J13)</f>
@@ -10324,7 +10326,7 @@
       </c>
       <c r="H14" s="182" t="str">
         <f>_xll.qlIborIndex(,,B14,C14,Currency,D14,E14,F14,G14,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0017a#0001</v>
+        <v>obj_00170#0000</v>
       </c>
       <c r="I14" s="182" t="str">
         <f t="shared" si="0"/>
@@ -10332,7 +10334,7 @@
       </c>
       <c r="J14" s="183" t="str">
         <f>_xll.qlDepositRateHelper(,I14,H14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00180#0001</v>
+        <v>obj_00185#0000</v>
       </c>
       <c r="K14" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(J14)</f>
@@ -10362,7 +10364,7 @@
       </c>
       <c r="H15" s="182" t="str">
         <f>_xll.qlIborIndex(,,B15,C15,Currency,D15,E15,F15,G15,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0016f#0001</v>
+        <v>obj_00174#0000</v>
       </c>
       <c r="I15" s="182" t="str">
         <f t="shared" si="0"/>
@@ -10370,7 +10372,7 @@
       </c>
       <c r="J15" s="183" t="str">
         <f>_xll.qlDepositRateHelper(,I15,H15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0017f#0001</v>
+        <v>obj_00183#0000</v>
       </c>
       <c r="K15" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(J15)</f>
@@ -10400,7 +10402,7 @@
       </c>
       <c r="H16" s="182" t="str">
         <f>_xll.qlIborIndex(,,B16,C16,Currency,D16,E16,F16,G16,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_0016d#0001</v>
+        <v>obj_0016d#0000</v>
       </c>
       <c r="I16" s="182" t="str">
         <f t="shared" si="0"/>
@@ -10408,7 +10410,7 @@
       </c>
       <c r="J16" s="183" t="str">
         <f>_xll.qlDepositRateHelper(,I16,H16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00185#0001</v>
+        <v>obj_00180#0000</v>
       </c>
       <c r="K16" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(J16)</f>
@@ -10438,7 +10440,7 @@
       </c>
       <c r="H17" s="182" t="str">
         <f>_xll.qlIborIndex(,,B17,C17,Currency,D17,E17,F17,G17,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00179#0001</v>
+        <v>obj_0016e#0000</v>
       </c>
       <c r="I17" s="182" t="str">
         <f t="shared" si="0"/>
@@ -10446,7 +10448,7 @@
       </c>
       <c r="J17" s="183" t="str">
         <f>_xll.qlDepositRateHelper(,I17,H17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00187#0001</v>
+        <v>obj_00184#0000</v>
       </c>
       <c r="K17" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(J17)</f>
@@ -10476,7 +10478,7 @@
       </c>
       <c r="H18" s="182" t="str">
         <f>_xll.qlIborIndex(,,B18,C18,Currency,D18,E18,F18,G18,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00173#0001</v>
+        <v>obj_0016f#0000</v>
       </c>
       <c r="I18" s="182" t="str">
         <f t="shared" si="0"/>
@@ -10484,7 +10486,7 @@
       </c>
       <c r="J18" s="183" t="str">
         <f>_xll.qlDepositRateHelper(,I18,H18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0017c#0001</v>
+        <v>obj_0017d#0000</v>
       </c>
       <c r="K18" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(J18)</f>
@@ -10514,7 +10516,7 @@
       </c>
       <c r="H19" s="182" t="str">
         <f>_xll.qlIborIndex(,,B19,C19,Currency,D19,E19,F19,G19,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00177#0001</v>
+        <v>obj_00179#0000</v>
       </c>
       <c r="I19" s="182" t="str">
         <f t="shared" si="0"/>
@@ -10522,7 +10524,7 @@
       </c>
       <c r="J19" s="183" t="str">
         <f>_xll.qlDepositRateHelper(,I19,H19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00186#0001</v>
+        <v>obj_00182#0000</v>
       </c>
       <c r="K19" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(J19)</f>
@@ -10552,7 +10554,7 @@
       </c>
       <c r="H20" s="46" t="str">
         <f>_xll.qlIborIndex(,,B20,C20,Currency,D20,E20,F20,G20,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00174#0001</v>
+        <v>obj_00172#0000</v>
       </c>
       <c r="I20" s="46" t="str">
         <f t="shared" si="0"/>
@@ -10560,7 +10562,7 @@
       </c>
       <c r="J20" s="184" t="str">
         <f>_xll.qlDepositRateHelper(,I20,H20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00181#0001</v>
+        <v>obj_00187#0000</v>
       </c>
       <c r="K20" s="178"/>
       <c r="L20" s="45"/>
@@ -10695,11 +10697,11 @@
       </c>
       <c r="E3" s="164" t="str">
         <f t="array" ref="E3:E17">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger),$D3:$D17)</f>
-        <v>M5</v>
+        <v>U5</v>
       </c>
       <c r="F3" s="189">
         <f>_xll.qlIMMdate(E3)</f>
-        <v>42172</v>
+        <v>42263</v>
       </c>
       <c r="G3" s="164" t="str">
         <f t="shared" ref="G3:G17" si="0">PROPER(Currency)&amp;FamilyName&amp;$H$1</f>
@@ -10714,7 +10716,7 @@
       </c>
       <c r="J3" s="168" t="str">
         <f>_xll.qlFuturesRateHelper(,$H3,C3,$E3,$G3,$I3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00160#0008</v>
+        <v>obj_0015d#0000</v>
       </c>
       <c r="K3" s="169" t="str">
         <f>_xll.ohRangeRetrieveError(J3)</f>
@@ -10737,11 +10739,11 @@
         <v>1</v>
       </c>
       <c r="E4" s="165" t="str">
-        <v>U5</v>
+        <v>Z5</v>
       </c>
       <c r="F4" s="190">
         <f>_xll.qlIMMdate(E4)</f>
-        <v>42263</v>
+        <v>42354</v>
       </c>
       <c r="G4" s="165" t="str">
         <f t="shared" si="0"/>
@@ -10756,7 +10758,7 @@
       </c>
       <c r="J4" s="173" t="str">
         <f>_xll.qlFuturesRateHelper(,$H4,C4,$E4,$G4,$I4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0015d#0002</v>
+        <v>obj_00166#0000</v>
       </c>
       <c r="K4" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(J4)</f>
@@ -10779,11 +10781,11 @@
         <v>1</v>
       </c>
       <c r="E5" s="165" t="str">
-        <v>Z5</v>
+        <v>H6</v>
       </c>
       <c r="F5" s="190">
         <f>_xll.qlIMMdate(E5)</f>
-        <v>42354</v>
+        <v>42445</v>
       </c>
       <c r="G5" s="165" t="str">
         <f t="shared" si="0"/>
@@ -10798,7 +10800,7 @@
       </c>
       <c r="J5" s="173" t="str">
         <f>_xll.qlFuturesRateHelper(,$H5,C5,$E5,$G5,$I5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0015a#0002</v>
+        <v>obj_0015e#0000</v>
       </c>
       <c r="K5" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(J5)</f>
@@ -10821,11 +10823,11 @@
         <v>1</v>
       </c>
       <c r="E6" s="165" t="str">
-        <v>H6</v>
+        <v>M6</v>
       </c>
       <c r="F6" s="190">
         <f>_xll.qlIMMdate(E6)</f>
-        <v>42445</v>
+        <v>42536</v>
       </c>
       <c r="G6" s="165" t="str">
         <f t="shared" si="0"/>
@@ -10840,7 +10842,7 @@
       </c>
       <c r="J6" s="173" t="str">
         <f>_xll.qlFuturesRateHelper(,$H6,C6,$E6,$G6,$I6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0015c#0002</v>
+        <v>obj_00167#0000</v>
       </c>
       <c r="K6" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(J6)</f>
@@ -10863,11 +10865,11 @@
         <v>1</v>
       </c>
       <c r="E7" s="165" t="str">
-        <v>M6</v>
+        <v>U6</v>
       </c>
       <c r="F7" s="190">
         <f>_xll.qlIMMdate(E7)</f>
-        <v>42536</v>
+        <v>42634</v>
       </c>
       <c r="G7" s="165" t="str">
         <f t="shared" si="0"/>
@@ -10882,7 +10884,7 @@
       </c>
       <c r="J7" s="173" t="str">
         <f>_xll.qlFuturesRateHelper(,$H7,C7,$E7,$G7,$I7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0015f#0002</v>
+        <v>obj_00160#0000</v>
       </c>
       <c r="K7" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(J7)</f>
@@ -10905,11 +10907,11 @@
         <v>1</v>
       </c>
       <c r="E8" s="165" t="str">
-        <v>U6</v>
+        <v>Z6</v>
       </c>
       <c r="F8" s="190">
         <f>_xll.qlIMMdate(E8)</f>
-        <v>42634</v>
+        <v>42725</v>
       </c>
       <c r="G8" s="165" t="str">
         <f t="shared" si="0"/>
@@ -10924,7 +10926,7 @@
       </c>
       <c r="J8" s="173" t="str">
         <f>_xll.qlFuturesRateHelper(,$H8,C8,$E8,$G8,$I8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00164#0002</v>
+        <v>obj_00168#0000</v>
       </c>
       <c r="K8" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(J8)</f>
@@ -10947,11 +10949,11 @@
         <v>1</v>
       </c>
       <c r="E9" s="165" t="str">
-        <v>Z6</v>
+        <v>H7</v>
       </c>
       <c r="F9" s="190">
         <f>_xll.qlIMMdate(E9)</f>
-        <v>42725</v>
+        <v>42809</v>
       </c>
       <c r="G9" s="165" t="str">
         <f t="shared" si="0"/>
@@ -10966,7 +10968,7 @@
       </c>
       <c r="J9" s="173" t="str">
         <f>_xll.qlFuturesRateHelper(,$H9,C9,$E9,$G9,$I9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00166#0002</v>
+        <v>obj_00161#0000</v>
       </c>
       <c r="K9" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(J9)</f>
@@ -10989,11 +10991,11 @@
         <v>1</v>
       </c>
       <c r="E10" s="165" t="str">
-        <v>H7</v>
+        <v>M7</v>
       </c>
       <c r="F10" s="190">
         <f>_xll.qlIMMdate(E10)</f>
-        <v>42809</v>
+        <v>42907</v>
       </c>
       <c r="G10" s="165" t="str">
         <f t="shared" si="0"/>
@@ -11008,7 +11010,7 @@
       </c>
       <c r="J10" s="173" t="str">
         <f>_xll.qlFuturesRateHelper(,$H10,C10,$E10,$G10,$I10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0015e#0002</v>
+        <v>obj_00159#0000</v>
       </c>
       <c r="K10" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(J10)</f>
@@ -11031,11 +11033,11 @@
         <v>1</v>
       </c>
       <c r="E11" s="165" t="str">
-        <v>M7</v>
+        <v>U7</v>
       </c>
       <c r="F11" s="190">
         <f>_xll.qlIMMdate(E11)</f>
-        <v>42907</v>
+        <v>42998</v>
       </c>
       <c r="G11" s="165" t="str">
         <f t="shared" si="0"/>
@@ -11050,7 +11052,7 @@
       </c>
       <c r="J11" s="173" t="str">
         <f>_xll.qlFuturesRateHelper(,$H11,C11,$E11,$G11,$I11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00167#0002</v>
+        <v>obj_00162#0000</v>
       </c>
       <c r="K11" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(J11)</f>
@@ -11073,11 +11075,11 @@
         <v>1</v>
       </c>
       <c r="E12" s="165" t="str">
-        <v>U7</v>
+        <v>Z7</v>
       </c>
       <c r="F12" s="190">
         <f>_xll.qlIMMdate(E12)</f>
-        <v>42998</v>
+        <v>43089</v>
       </c>
       <c r="G12" s="165" t="str">
         <f t="shared" si="0"/>
@@ -11092,7 +11094,7 @@
       </c>
       <c r="J12" s="173" t="str">
         <f>_xll.qlFuturesRateHelper(,$H12,C12,$E12,$G12,$I12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00165#0002</v>
+        <v>obj_0015a#0000</v>
       </c>
       <c r="K12" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(J12)</f>
@@ -11115,11 +11117,11 @@
         <v>1</v>
       </c>
       <c r="E13" s="165" t="str">
-        <v>Z7</v>
+        <v>H8</v>
       </c>
       <c r="F13" s="190">
         <f>_xll.qlIMMdate(E13)</f>
-        <v>43089</v>
+        <v>43180</v>
       </c>
       <c r="G13" s="165" t="str">
         <f t="shared" si="0"/>
@@ -11134,7 +11136,7 @@
       </c>
       <c r="J13" s="173" t="str">
         <f>_xll.qlFuturesRateHelper(,$H13,C13,$E13,$G13,$I13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0015b#0002</v>
+        <v>obj_00163#0000</v>
       </c>
       <c r="K13" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(J13)</f>
@@ -11157,11 +11159,11 @@
         <v>1</v>
       </c>
       <c r="E14" s="165" t="str">
-        <v>H8</v>
+        <v>M8</v>
       </c>
       <c r="F14" s="190">
         <f>_xll.qlIMMdate(E14)</f>
-        <v>43180</v>
+        <v>43271</v>
       </c>
       <c r="G14" s="165" t="str">
         <f t="shared" si="0"/>
@@ -11176,7 +11178,7 @@
       </c>
       <c r="J14" s="173" t="str">
         <f>_xll.qlFuturesRateHelper(,$H14,C14,$E14,$G14,$I14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00163#0002</v>
+        <v>obj_0015b#0000</v>
       </c>
       <c r="K14" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(J14)</f>
@@ -11199,11 +11201,11 @@
         <v>1</v>
       </c>
       <c r="E15" s="165" t="str">
-        <v>M8</v>
+        <v>U8</v>
       </c>
       <c r="F15" s="190">
         <f>_xll.qlIMMdate(E15)</f>
-        <v>43271</v>
+        <v>43362</v>
       </c>
       <c r="G15" s="165" t="str">
         <f t="shared" si="0"/>
@@ -11218,7 +11220,7 @@
       </c>
       <c r="J15" s="173" t="str">
         <f>_xll.qlFuturesRateHelper(,$H15,C15,$E15,$G15,$I15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00162#0002</v>
+        <v>obj_00164#0000</v>
       </c>
       <c r="K15" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(J15)</f>
@@ -11241,11 +11243,11 @@
         <v>1</v>
       </c>
       <c r="E16" s="165" t="str">
-        <v>U8</v>
+        <v>Z8</v>
       </c>
       <c r="F16" s="190">
         <f>_xll.qlIMMdate(E16)</f>
-        <v>43362</v>
+        <v>43453</v>
       </c>
       <c r="G16" s="165" t="str">
         <f t="shared" si="0"/>
@@ -11260,7 +11262,7 @@
       </c>
       <c r="J16" s="173" t="str">
         <f>_xll.qlFuturesRateHelper(,$H16,C16,$E16,$G16,$I16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00168#0002</v>
+        <v>obj_0015c#0000</v>
       </c>
       <c r="K16" s="174" t="str">
         <f>_xll.ohRangeRetrieveError(J16)</f>
@@ -11283,11 +11285,11 @@
         <v>1</v>
       </c>
       <c r="E17" s="119" t="str">
-        <v>Z8</v>
+        <v>H9</v>
       </c>
       <c r="F17" s="191">
         <f>_xll.qlIMMdate(E17)</f>
-        <v>43453</v>
+        <v>43544</v>
       </c>
       <c r="G17" s="119" t="str">
         <f t="shared" si="0"/>
@@ -11302,7 +11304,7 @@
       </c>
       <c r="J17" s="120" t="str">
         <f>_xll.qlFuturesRateHelper(,$H17,C17,$E17,$G17,$I17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00161#0002</v>
+        <v>obj_00165#0000</v>
       </c>
       <c r="K17" s="178" t="str">
         <f>_xll.ohRangeRetrieveError(J17)</f>
@@ -11444,7 +11446,7 @@
       <c r="K3" s="55"/>
       <c r="L3" s="138" t="str">
         <f>_xll.qlIborIndex(,FamilyName,IndexTenor,2,Currency,Calendar,"mf",TRUE,"Actual/360",,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00142#0001</v>
+        <v>obj_00142#0000</v>
       </c>
       <c r="M3" s="127" t="str">
         <f>_xll.ohRangeRetrieveError(L3)</f>
@@ -11503,7 +11505,7 @@
       </c>
       <c r="L5" s="144" t="str">
         <f>_xll.qlSwapRateHelper2(,$K5,B5,$D5,Calendar,$G5,$H5,$I5,$L$3,$J5,C5,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00145#0009</v>
+        <v>obj_00145#0000</v>
       </c>
       <c r="M5" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(L5)</f>
@@ -11546,7 +11548,7 @@
       </c>
       <c r="L6" s="151" t="str">
         <f>_xll.qlSwapRateHelper2(,$K6,B6,$D6,Calendar,$G6,$H6,$I6,$L$3,$J6,C6,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00143#0003</v>
+        <v>obj_00158#0000</v>
       </c>
       <c r="M6" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -11589,7 +11591,7 @@
       </c>
       <c r="L7" s="151" t="str">
         <f>_xll.qlSwapRateHelper2(,$K7,B7,$D7,Calendar,$G7,$H7,$I7,$L$3,$J7,C7,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0014c#0003</v>
+        <v>obj_00147#0000</v>
       </c>
       <c r="M7" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -11632,7 +11634,7 @@
       </c>
       <c r="L8" s="151" t="str">
         <f>_xll.qlSwapRateHelper2(,$K8,B8,$D8,Calendar,$G8,$H8,$I8,$L$3,$J8,C8,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00157#0003</v>
+        <v>obj_00143#0000</v>
       </c>
       <c r="M8" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -11675,7 +11677,7 @@
       </c>
       <c r="L9" s="151" t="str">
         <f>_xll.qlSwapRateHelper2(,$K9,B9,$D9,Calendar,$G9,$H9,$I9,$L$3,$J9,C9,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00147#0003</v>
+        <v>obj_00149#0000</v>
       </c>
       <c r="M9" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -11718,7 +11720,7 @@
       </c>
       <c r="L10" s="151" t="str">
         <f>_xll.qlSwapRateHelper2(,$K10,B10,$D10,Calendar,$G10,$H10,$I10,$L$3,$J10,C10,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00150#0003</v>
+        <v>obj_0014f#0000</v>
       </c>
       <c r="M10" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -11761,7 +11763,7 @@
       </c>
       <c r="L11" s="151" t="str">
         <f>_xll.qlSwapRateHelper2(,$K11,B11,$D11,Calendar,$G11,$H11,$I11,$L$3,$J11,C11,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00148#0003</v>
+        <v>obj_00148#0000</v>
       </c>
       <c r="M11" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -11804,7 +11806,7 @@
       </c>
       <c r="L12" s="151" t="str">
         <f>_xll.qlSwapRateHelper2(,$K12,B12,$D12,Calendar,$G12,$H12,$I12,$L$3,$J12,C12,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0014e#0003</v>
+        <v>obj_0014b#0000</v>
       </c>
       <c r="M12" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -11847,7 +11849,7 @@
       </c>
       <c r="L13" s="151" t="str">
         <f>_xll.qlSwapRateHelper2(,$K13,B13,$D13,Calendar,$G13,$H13,$I13,$L$3,$J13,C13,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00158#0003</v>
+        <v>obj_00150#0000</v>
       </c>
       <c r="M13" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -11890,7 +11892,7 @@
       </c>
       <c r="L14" s="151" t="str">
         <f>_xll.qlSwapRateHelper2(,$K14,B14,$D14,Calendar,$G14,$H14,$I14,$L$3,$J14,C14,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00146#0003</v>
+        <v>obj_00144#0000</v>
       </c>
       <c r="M14" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -11933,7 +11935,7 @@
       </c>
       <c r="L15" s="151" t="str">
         <f>_xll.qlSwapRateHelper2(,$K15,B15,$D15,Calendar,$G15,$H15,$I15,$L$3,$J15,C15,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0014f#0003</v>
+        <v>obj_00152#0000</v>
       </c>
       <c r="M15" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -11976,7 +11978,7 @@
       </c>
       <c r="L16" s="151" t="str">
         <f>_xll.qlSwapRateHelper2(,$K16,B16,$D16,Calendar,$G16,$H16,$I16,$L$3,$J16,C16,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00154#0003</v>
+        <v>obj_0014d#0000</v>
       </c>
       <c r="M16" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -12019,7 +12021,7 @@
       </c>
       <c r="L17" s="151" t="str">
         <f>_xll.qlSwapRateHelper2(,$K17,B17,$D17,Calendar,$G17,$H17,$I17,$L$3,$J17,C17,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0014a#0003</v>
+        <v>obj_0014c#0000</v>
       </c>
       <c r="M17" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -12062,7 +12064,7 @@
       </c>
       <c r="L18" s="151" t="str">
         <f>_xll.qlSwapRateHelper2(,$K18,B18,$D18,Calendar,$G18,$H18,$I18,$L$3,$J18,C18,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00153#0003</v>
+        <v>obj_00156#0000</v>
       </c>
       <c r="M18" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -12105,7 +12107,7 @@
       </c>
       <c r="L19" s="151" t="str">
         <f>_xll.qlSwapRateHelper2(,$K19,B19,$D19,Calendar,$G19,$H19,$I19,$L$3,$J19,C19,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0014b#0003</v>
+        <v>obj_00157#0000</v>
       </c>
       <c r="M19" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -12148,7 +12150,7 @@
       </c>
       <c r="L20" s="151" t="str">
         <f>_xll.qlSwapRateHelper2(,$K20,B20,$D20,Calendar,$G20,$H20,$I20,$L$3,$J20,C20,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00151#0003</v>
+        <v>obj_00154#0000</v>
       </c>
       <c r="M20" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -12191,7 +12193,7 @@
       </c>
       <c r="L21" s="151" t="str">
         <f>_xll.qlSwapRateHelper2(,$K21,B21,$D21,Calendar,$G21,$H21,$I21,$L$3,$J21,C21,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00155#0003</v>
+        <v>obj_00151#0000</v>
       </c>
       <c r="M21" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -12234,7 +12236,7 @@
       </c>
       <c r="L22" s="151" t="str">
         <f>_xll.qlSwapRateHelper2(,$K22,B22,$D22,Calendar,$G22,$H22,$I22,$L$3,$J22,C22,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00149#0003</v>
+        <v>obj_00155#0000</v>
       </c>
       <c r="M22" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -12277,7 +12279,7 @@
       </c>
       <c r="L23" s="151" t="str">
         <f>_xll.qlSwapRateHelper2(,$K23,B23,$D23,Calendar,$G23,$H23,$I23,$L$3,$J23,C23,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00152#0003</v>
+        <v>obj_0014a#0000</v>
       </c>
       <c r="M23" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -12320,7 +12322,7 @@
       </c>
       <c r="L24" s="151" t="str">
         <f>_xll.qlSwapRateHelper2(,$K24,B24,$D24,Calendar,$G24,$H24,$I24,$L$3,$J24,C24,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00144#0003</v>
+        <v>obj_00146#0000</v>
       </c>
       <c r="M24" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -12363,7 +12365,7 @@
       </c>
       <c r="L25" s="151" t="str">
         <f>_xll.qlSwapRateHelper2(,$K25,B25,$D25,Calendar,$G25,$H25,$I25,$L$3,$J25,C25,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0014d#0003</v>
+        <v>obj_0014e#0000</v>
       </c>
       <c r="M25" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -12406,7 +12408,7 @@
       </c>
       <c r="L26" s="158" t="str">
         <f>_xll.qlSwapRateHelper2(,$K26,B26,$D26,Calendar,$G26,$H26,$I26,$L$3,$J26,C26,,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00156#0003</v>
+        <v>obj_00153#0000</v>
       </c>
       <c r="M26" s="159" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
